--- a/co_occurrence_product_by_function.xlsx
+++ b/co_occurrence_product_by_function.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,156 @@
       </c>
       <c r="B11" t="n">
         <v>239</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>proacne</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>face</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>gentle</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>matt</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>fluid</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>cleanse</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pro</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ai</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>please</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>minimizer</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>beminimalist</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>poreless</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>dry</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>moisturizer</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,6 +832,156 @@
       </c>
       <c r="B11" t="n">
         <v>475</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>toner</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>acne</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>please</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>niacinamide</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>beminimalist</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>tranexamic</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>suggest</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>body</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>vitamin</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>lactic</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>routine</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -695,7 +995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -813,6 +1113,156 @@
       </c>
       <c r="B11" t="n">
         <v>156</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>acne</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>moisturizer</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>minimalist</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>vitamin</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>love</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>cleanser</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>apply</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sunscreen</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>biotic</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>routine</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>face</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>suggest</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -826,7 +1276,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -944,6 +1394,156 @@
       </c>
       <c r="B11" t="n">
         <v>966</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>please</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>beminimalist</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>hair</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>arbutin</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>suggest</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>love</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>minimalist</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>apply</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>face</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>routine</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>eucerin</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -957,7 +1557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1075,6 +1675,156 @@
       </c>
       <c r="B11" t="n">
         <v>299</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>niacinamide</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sunscreen</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>acne</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>beminimalist</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sepicalm</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>salicylic</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>oat</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>face</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>routine</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pm</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>dry</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1088,7 +1838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1206,6 +1956,156 @@
       </c>
       <c r="B11" t="n">
         <v>168</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>beminimalist</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>please</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>acne</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>solution</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>niacinamide</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>face</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>leave</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>salicylic</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>suggest</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>chemical</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>apply</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>love</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1219,7 +2119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1337,6 +2237,156 @@
       </c>
       <c r="B11" t="n">
         <v>1702</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>dark</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>beminimalist</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>suggest</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>salicylic</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>prone</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>scar</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>well</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>mark</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>oily</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>reduce</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>face</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>arbutin</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>940</v>
       </c>
     </row>
   </sheetData>
@@ -1350,7 +2400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,6 +2518,156 @@
       </c>
       <c r="B11" t="n">
         <v>390</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>stick</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>love</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>serum</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>know</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>thank</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>make</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>team</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>moisturizer</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>oily</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -1481,7 +2681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,6 +2801,156 @@
         <v>6</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>hydrate</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>please</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>acne</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pha</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>super</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>moisturizer</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>oily</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>dry</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>cream</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>stick</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>serum</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
